--- a/Assets/RawData/ClassDBSheet.xlsx
+++ b/Assets/RawData/ClassDBSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384C86AC-58E2-403A-A06D-656A5C5ED5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDEE335-CC10-466E-88B8-861385D8E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1500" windowWidth="22500" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>_spd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,9 +274,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:H5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="_id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="_className"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="_hp"/>
@@ -288,7 +284,6 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="_atk"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="_def"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="_spd"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="_weight"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="_atkSpd"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -558,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,15 +564,15 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -597,11 +592,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -609,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -651,34 +643,34 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -689,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -700,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -717,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -731,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -745,16 +737,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -765,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
         <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -785,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -796,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -810,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ClassDBSheet.xlsx
+++ b/Assets/RawData/ClassDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDEE335-CC10-466E-88B8-861385D8E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18158E6-9F5D-4B55-BC80-9AD610B67F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>1</v>
